--- a/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
+++ b/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
@@ -14,81 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>urlID</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>bkjsnvkj</t>
-  </si>
-  <si>
-    <t>kjb</t>
-  </si>
-  <si>
-    <t>hjjhh</t>
-  </si>
-  <si>
-    <t>gsdf</t>
-  </si>
-  <si>
-    <t>dfdfx</t>
-  </si>
-  <si>
-    <t>gfv</t>
-  </si>
-  <si>
-    <t>vcv</t>
-  </si>
-  <si>
-    <t>vzv</t>
-  </si>
-  <si>
-    <t>fxgd</t>
-  </si>
-  <si>
-    <t>dz</t>
-  </si>
-  <si>
-    <t>dfzv</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>www.amazon.com/amazon-fashion</t>
+  </si>
+  <si>
+    <t>www.udemy.com/complete-wordpress-course</t>
+  </si>
+  <si>
+    <t>www.udemy.com/courses/development</t>
+  </si>
+  <si>
+    <t>www.udemy.com/complete-python-bootcamp</t>
+  </si>
+  <si>
+    <t>www.udemy.com/the-complete-guide-to-angular-2</t>
+  </si>
+  <si>
+    <t>www.amazon.com/gp/video</t>
+  </si>
+  <si>
+    <t>www.ndtv.com/news</t>
+  </si>
+  <si>
+    <t>www.ndtv.com/india-news/centre-plans-ahead-as-indias-elderly-population-to-cross-340-million-by-2050-1898381</t>
+  </si>
+  <si>
+    <t>www.yahoo.com/news</t>
+  </si>
+  <si>
+    <t>www.yahoo.com/news/harley-looking-guide-come-hand-140122669.html</t>
+  </si>
+  <si>
+    <t>www.finance.yahoo.com/news/assassins-creed-odyssey-preview-unleash-inner-spartan-213608650.html</t>
+  </si>
+  <si>
+    <t>www.indiaeducationdiary.in/category/book-literature</t>
+  </si>
+  <si>
+    <t>www.indiaeducationdiary.in/category/state-news/delhi</t>
+  </si>
+  <si>
+    <t>www.seleniumhq.org/download/maven.jsp</t>
   </si>
 </sst>
 </file>
@@ -124,9 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,144 +400,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
+++ b/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>www.amazon.com/amazon-fashion</t>
   </si>
@@ -59,12 +56,31 @@
   </si>
   <si>
     <t>www.seleniumhq.org/download/maven.jsp</t>
+  </si>
+  <si>
+    <t>DomainFlag</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>www.google.co.in/search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,18 +106,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -118,10 +150,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -156,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +311,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -288,13 +320,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -304,7 +336,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -313,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -322,7 +354,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -332,12 +364,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -368,7 +400,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -387,7 +419,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -399,94 +431,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
+++ b/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>www.amazon.com/amazon-fashion</t>
   </si>
@@ -432,195 +432,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>

--- a/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
+++ b/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
+++ b/POC_01/src/main/resources/ClientCache/ClientCache.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>www.amazon.com/amazon-fashion</t>
   </si>
@@ -74,6 +74,21 @@
   </si>
   <si>
     <t>www.google.co.in/search</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>www.facebook.com/</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>www.web.whatsapp.com/??/en</t>
   </si>
 </sst>
 </file>
@@ -432,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,15 +618,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
